--- a/IndexCounter/IndexCounter/bin/Debug/Мужчины внешнее (Det)(15.07.2015 14-00-38).xlsx
+++ b/IndexCounter/IndexCounter/bin/Debug/Мужчины внешнее (Det)(15.07.2015 14-00-38).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovachev\Desktop\LAR (Det)\Det\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\IndexCounter\IndexCounter\IndexCounter\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -585,11 +585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368507688"/>
-        <c:axId val="368528544"/>
+        <c:axId val="350052432"/>
+        <c:axId val="350059096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368507688"/>
+        <c:axId val="350052432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,12 +707,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368528544"/>
+        <c:crossAx val="350059096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368528544"/>
+        <c:axId val="350059096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +833,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368507688"/>
+        <c:crossAx val="350052432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1442,16 +1442,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
